--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F093D72E-8DBC-3E4E-8F58-C9FF7FEFDE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4DEE11-97AE-CD49-B986-CDC35D98C191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>Гречотто с беконом и яйцом пашот</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Buckwheat risotto with bacon and poached egg</t>
   </si>
   <si>
     <t>წიწიბურის რიზოტრო ბეკონით და მოხარშული კვერცხით</t>
@@ -326,6 +322,9 @@
   </si>
   <si>
     <t>shakshuka2_2</t>
+  </si>
+  <si>
+    <t>Buckwheat risotto with bacon and poached egg</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD1009"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1067,38 +1066,36 @@
         <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15" t="str">
         <f t="shared" ref="I2:I12" si="0">LOWER($B2)</f>
-        <v xml:space="preserve">
-buckwheat risotto with bacon and poached egg</v>
+        <v>buckwheat risotto with bacon and poached egg</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>LOWER($B2)&amp;"_"&amp;2</f>
-        <v xml:space="preserve">
-buckwheat risotto with bacon and poached egg_2</v>
+        <v>buckwheat risotto with bacon and poached egg_2</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -1118,13 +1115,13 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -1144,13 +1141,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -29288,37 +29285,37 @@
     </row>
     <row r="2" spans="1:30" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
       <c r="I2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -29328,23 +29325,23 @@
       <c r="G3" s="16"/>
       <c r="H3" s="17"/>
       <c r="I3" s="15" t="str">
-        <f t="shared" ref="I2:I12" si="0">LOWER($B3)</f>
+        <f t="shared" ref="I3:I12" si="0">LOWER($B3)</f>
         <v>english breakfast</v>
       </c>
       <c r="J3" s="15" t="str">
-        <f t="shared" ref="J2:J7" si="1">LOWER($B3)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J3:J7" si="1">LOWER($B3)&amp;"_"&amp;2</f>
         <v>english breakfast_2</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -29364,13 +29361,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -29390,13 +29387,13 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -29416,13 +29413,13 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -57487,7 +57484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -57530,17 +57527,17 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -57556,13 +57553,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -57582,13 +57579,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -57608,13 +57605,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -57713,17 +57710,17 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -57739,17 +57736,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="18"/>
@@ -57765,17 +57762,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="18"/>
@@ -57913,17 +57910,17 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
@@ -57939,17 +57936,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="18"/>
@@ -57965,17 +57962,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="18"/>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4DEE11-97AE-CD49-B986-CDC35D98C191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CE957-E4DB-B948-B6EC-15B9EB2D0A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="8600" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>name_ru</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Buckwheat risotto with bacon and poached egg</t>
+  </si>
+  <si>
+    <t>cottage cheese pancakes with sour cream and cherry compote</t>
+  </si>
+  <si>
+    <t>cottage cheese pancakes with sour cream and cherry compote_2</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -57865,8 +57871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -57925,13 +57931,11 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="15" t="str">
-        <f>LOWER($B2)</f>
-        <v>syrniki with sour cream and cherries</v>
+      <c r="I2" s="3" t="s">
+        <v>95</v>
       </c>
-      <c r="J2" s="15" t="str">
-        <f>LOWER($B2)&amp;"_"&amp;2</f>
-        <v>syrniki with sour cream and cherries_2</v>
+      <c r="J2" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10">

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CE957-E4DB-B948-B6EC-15B9EB2D0A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C6D7F-C8CC-D14C-85E3-AF1EDED6243A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="8600" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="8600" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>Зелёный м моцареллой</t>
-  </si>
-  <si>
     <t>Green salad with mozzarella</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>cottage cheese pancakes with sour cream and cherry compote_2</t>
+  </si>
+  <si>
+    <t>Зелёный с моцареллой</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
@@ -29307,10 +29307,10 @@
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
       <c r="I2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -57671,8 +57671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -57742,13 +57742,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
@@ -57768,13 +57768,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="13" t="s">
@@ -57871,7 +57871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -57916,13 +57916,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
@@ -57932,25 +57932,25 @@
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="18"/>
@@ -57966,17 +57966,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="18"/>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C6D7F-C8CC-D14C-85E3-AF1EDED6243A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C762F33-E079-B44B-BED7-3185E276AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="8600" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="8600" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>კრევეტის ომლეტი</t>
   </si>
   <si>
-    <t>Французские тосты с вишней и мороженым</t>
-  </si>
-  <si>
     <t>Truffle scrambled eggs with chanterelles</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>Зелёный с моцареллой</t>
+  </si>
+  <si>
+    <t>Трюфельный скрэмбл с лисичками</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
@@ -29247,8 +29247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD1009"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29307,10 +29307,10 @@
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
       <c r="I2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -29419,13 +29419,13 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -57533,17 +57533,17 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -57559,13 +57559,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -57585,13 +57585,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -57611,13 +57611,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -57671,7 +57671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -57716,17 +57716,17 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -57742,17 +57742,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="18"/>
@@ -57768,17 +57768,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="18"/>
@@ -57916,41 +57916,41 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="18"/>
@@ -57966,17 +57966,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="18"/>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2972CBE7-B16B-174C-B5EC-68BFDA1095DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECFEA3C-F812-AE45-A8D8-B14B19D0F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>name_ru</t>
   </si>
@@ -391,6 +391,30 @@
   </si>
   <si>
     <t>ნიოკი თხილის პესტოთი</t>
+  </si>
+  <si>
+    <t>Мидии в песто соусе</t>
+  </si>
+  <si>
+    <t>Mussels in pesto sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грин тост </t>
+  </si>
+  <si>
+    <t>Green toast</t>
+  </si>
+  <si>
+    <t>Шоколадный фондан</t>
+  </si>
+  <si>
+    <t>Chocolate Fondant</t>
+  </si>
+  <si>
+    <t>Alco ice-cream set</t>
+  </si>
+  <si>
+    <t>Десерт  18+</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD1009"/>
+  <dimension ref="A1:AD1010"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1140,7 +1164,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I22" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I24" si="0">LOWER($B2)</f>
         <v>buckwheat risotto with bacon and poached egg</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -1248,7 +1272,7 @@
         <v>shakshuka</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:J22" si="1">LOWER($B6)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J6:J24" si="1">LOWER($B6)&amp;"_"&amp;2</f>
         <v>shakshuka_2</v>
       </c>
     </row>
@@ -1421,36 +1445,34 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
-        <v>46</v>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>14</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="17"/>
       <c r="I12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>avocado toast</v>
+        <v>green toast</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>avocado toast_2</v>
+        <v>green toast_2</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -1465,30 +1487,30 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" ht="17" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>14</v>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="17"/>
       <c r="I13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>croque monsieur</v>
+        <v>avocado toast</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>croque monsieur_2</v>
+        <v>avocado toast_2</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
@@ -1513,13 +1535,13 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -1530,11 +1552,11 @@
       <c r="H14" s="17"/>
       <c r="I14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>caprese pita</v>
+        <v>croque monsieur</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>caprese pita_2</v>
+        <v>croque monsieur_2</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="13"/>
@@ -1559,13 +1581,13 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -1576,11 +1598,11 @@
       <c r="H15" s="17"/>
       <c r="I15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>french toast with berries and ice cream</v>
+        <v>caprese pita</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>french toast with berries and ice cream_2</v>
+        <v>caprese pita_2</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="13"/>
@@ -1605,30 +1627,30 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
-        <v>59</v>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>14</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="19"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>greek salad</v>
+        <v>french toast with berries and ice cream</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>greek salad_2</v>
+        <v>french toast with berries and ice cream_2</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -1651,15 +1673,15 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
         <v>59</v>
       </c>
@@ -1668,11 +1690,11 @@
       <c r="H17" s="19"/>
       <c r="I17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>green salad with mozzarella</v>
+        <v>greek salad</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>green salad with mozzarella_2</v>
+        <v>greek salad_2</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -1697,13 +1719,13 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="11" t="s">
@@ -1714,11 +1736,11 @@
       <c r="H18" s="19"/>
       <c r="I18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>mexican salad with corn</v>
+        <v>green salad with mozzarella</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>mexican salad with corn_2</v>
+        <v>green salad with mozzarella_2</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -1743,28 +1765,28 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="19"/>
       <c r="I19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>syrniki with sour cream and cherries</v>
+        <v>mexican salad with corn</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>syrniki with sour cream and cherries_2</v>
+        <v>mexican salad with corn_2</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -1789,28 +1811,28 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="19"/>
       <c r="I20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>waffles with ice cream and berries</v>
+        <v>syrniki with sour cream and cherries</v>
       </c>
       <c r="J20" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>waffles with ice cream and berries_2</v>
+        <v>syrniki with sour cream and cherries_2</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -1835,13 +1857,13 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="11" t="s">
@@ -1852,11 +1874,11 @@
       <c r="H21" s="19"/>
       <c r="I21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>crêpe suzette</v>
+        <v>waffles with ice cream and berries</v>
       </c>
       <c r="J21" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>crêpe suzette_2</v>
+        <v>waffles with ice cream and berries_2</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1880,17 +1902,29 @@
       <c r="AD21" s="13"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="E22" s="13"/>
+      <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="19"/>
       <c r="I22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>crêpe suzette</v>
       </c>
       <c r="J22" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>_2</v>
+        <v>crêpe suzette_2</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -1914,12 +1948,26 @@
       <c r="AD22" s="13"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="E23" s="13"/>
+      <c r="A23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="13">
+        <v>15</v>
+      </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>chocolate fondant</v>
+      </c>
+      <c r="J23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>chocolate fondant_2</v>
+      </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -1942,12 +1990,26 @@
       <c r="AD23" s="13"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="E24" s="13"/>
+      <c r="A24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="13">
+        <v>9</v>
+      </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>alco ice-cream set</v>
+      </c>
+      <c r="J24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>alco ice-cream set_2</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -29549,6 +29611,34 @@
       <c r="AC1009" s="13"/>
       <c r="AD1009" s="13"/>
     </row>
+    <row r="1010" spans="5:30">
+      <c r="E1010" s="13"/>
+      <c r="F1010" s="13"/>
+      <c r="G1010" s="13"/>
+      <c r="H1010" s="19"/>
+      <c r="I1010" s="19"/>
+      <c r="J1010" s="13"/>
+      <c r="K1010" s="13"/>
+      <c r="L1010" s="13"/>
+      <c r="M1010" s="13"/>
+      <c r="N1010" s="13"/>
+      <c r="O1010" s="13"/>
+      <c r="P1010" s="13"/>
+      <c r="Q1010" s="13"/>
+      <c r="R1010" s="13"/>
+      <c r="S1010" s="13"/>
+      <c r="T1010" s="13"/>
+      <c r="U1010" s="13"/>
+      <c r="V1010" s="13"/>
+      <c r="W1010" s="13"/>
+      <c r="X1010" s="13"/>
+      <c r="Y1010" s="13"/>
+      <c r="Z1010" s="13"/>
+      <c r="AA1010" s="13"/>
+      <c r="AB1010" s="13"/>
+      <c r="AC1010" s="13"/>
+      <c r="AD1010" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -29557,10 +29647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
-  <dimension ref="A1:AD1009"/>
+  <dimension ref="A1:AD1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29620,7 +29710,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I12" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I13" si="0">LOWER($B2)</f>
         <v>eggplants with honey</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -29728,20 +29818,18 @@
         <v>mussels with tomato sauce</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:J12" si="1">LOWER($B6)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J6:J13" si="1">LOWER($B6)&amp;"_"&amp;2</f>
         <v>mussels with tomato sauce_2</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="19">
       <c r="A7" s="20" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>112</v>
-      </c>
+      <c r="C7" s="25"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
         <v>28</v>
@@ -29750,141 +29838,121 @@
       <c r="G7" s="16"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="str">
-        <f>LOWER($B7)</f>
-        <v>mussels with cream</v>
+        <f t="shared" si="0"/>
+        <v>mussels in pesto sauce</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>mussels with cream_2</v>
+        <v>mussels in pesto sauce_2</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="19">
       <c r="A8" s="20" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>113</v>
+      <c r="C8" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="16"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="str">
+        <f>LOWER($B8)</f>
+        <v>mussels with cream</v>
+      </c>
+      <c r="J8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>mussels with cream_2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="19">
+      <c r="A9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>linguine alla carbonara</v>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J9" s="13" t="str">
         <f t="shared" si="1"/>
         <v>linguine alla carbonara_2</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="19">
-      <c r="A9" s="20" t="s">
+    <row r="10" spans="1:30" ht="19">
+      <c r="A10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20">
         <v>21</v>
       </c>
-      <c r="I9" s="13" t="str">
+      <c r="I10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>fusillini al ragù alla bolognese</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J10" s="13" t="str">
         <f t="shared" si="1"/>
         <v>fusillini al ragù alla bolognese_2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="19">
-      <c r="A10" s="20" t="s">
+    <row r="11" spans="1:30" ht="19">
+      <c r="A11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C11" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20">
         <v>29</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="13" t="str">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>capellini ai frutti di mare</v>
       </c>
-      <c r="J10" s="13" t="str">
+      <c r="J11" s="13" t="str">
         <f t="shared" si="1"/>
         <v>capellini ai frutti di mare_2</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-    </row>
-    <row r="11" spans="1:30" ht="19">
-      <c r="A11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>fusillini al sugo rosso con stracciatella</v>
-      </c>
-      <c r="J11" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>fusillini al sugo rosso con stracciatella_2</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -29901,36 +29969,36 @@
     </row>
     <row r="12" spans="1:30" ht="19">
       <c r="A12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>117</v>
+      <c r="C12" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="17"/>
       <c r="I12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>gnocchi al pesto di nocciole</v>
+        <v>fusillini al sugo rosso con stracciatella</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>gnocchi al pesto di nocciole_2</v>
+        <v>fusillini al sugo rosso con stracciatella_2</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -29945,14 +30013,31 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30">
-      <c r="C13" s="3"/>
-      <c r="E13" s="13"/>
+    <row r="13" spans="1:30" ht="19">
+      <c r="A13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20">
+        <v>24</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>gnocchi al pesto di nocciole</v>
+      </c>
+      <c r="J13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>gnocchi al pesto di nocciole_2</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -29975,6 +30060,7 @@
       <c r="AD13" s="13"/>
     </row>
     <row r="14" spans="1:30">
+      <c r="C14" s="3"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -30032,12 +30118,12 @@
     </row>
     <row r="16" spans="1:30">
       <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -57862,6 +57948,34 @@
       <c r="AC1009" s="13"/>
       <c r="AD1009" s="13"/>
     </row>
+    <row r="1010" spans="5:30">
+      <c r="E1010" s="13"/>
+      <c r="F1010" s="13"/>
+      <c r="G1010" s="13"/>
+      <c r="H1010" s="19"/>
+      <c r="I1010" s="19"/>
+      <c r="J1010" s="13"/>
+      <c r="K1010" s="13"/>
+      <c r="L1010" s="13"/>
+      <c r="M1010" s="13"/>
+      <c r="N1010" s="13"/>
+      <c r="O1010" s="13"/>
+      <c r="P1010" s="13"/>
+      <c r="Q1010" s="13"/>
+      <c r="R1010" s="13"/>
+      <c r="S1010" s="13"/>
+      <c r="T1010" s="13"/>
+      <c r="U1010" s="13"/>
+      <c r="V1010" s="13"/>
+      <c r="W1010" s="13"/>
+      <c r="X1010" s="13"/>
+      <c r="Y1010" s="13"/>
+      <c r="Z1010" s="13"/>
+      <c r="AA1010" s="13"/>
+      <c r="AB1010" s="13"/>
+      <c r="AC1010" s="13"/>
+      <c r="AD1010" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECFEA3C-F812-AE45-A8D8-B14B19D0F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDA91BE-9F26-9B4D-BCA6-F5A790D5256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>name_ru</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>Десерт  18+</t>
+  </si>
+  <si>
+    <t>მიდიები პესტოს სოუსში</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29649,8 +29652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29829,7 +29832,9 @@
       <c r="B7" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24" t="s">
+        <v>126</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
         <v>28</v>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDA91BE-9F26-9B4D-BCA6-F5A790D5256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5AEA36-E597-AA45-9112-A6696084A15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
     <sheet name="Breakfast 9 AM-5 PM" sheetId="2" r:id="rId2"/>
-    <sheet name="Dinner 5-9 PM" sheetId="7" r:id="rId3"/>
+    <sheet name="Dinner 3-9 PM" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t>name_ru</t>
   </si>
@@ -94,18 +94,6 @@
   </si>
   <si>
     <t>კუსკუსი ისპანახით, ავოკადოთი და მოხარშული კვერცხით</t>
-  </si>
-  <si>
-    <t>Солёная овсяная каша с песто и моцареллой</t>
-  </si>
-  <si>
-    <t>Salted oatmeal porridge with pesto and mozzarella</t>
-  </si>
-  <si>
-    <t>მარილიანი ფაფა პესტოთი და მოცარელათი</t>
-  </si>
-  <si>
-    <t>Кокосовая рисовая каша с манго</t>
   </si>
   <si>
     <t>Coconut rice porridge with mango</t>
@@ -180,24 +168,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>Крок Месье</t>
-  </si>
-  <si>
-    <t>Croque Monsieur</t>
-  </si>
-  <si>
-    <t>ქროქ მონსიე</t>
-  </si>
-  <si>
-    <t>Пита Капрезе</t>
-  </si>
-  <si>
-    <t>Caprese pita</t>
-  </si>
-  <si>
-    <t>კაპრეზეს პიტა</t>
-  </si>
-  <si>
     <t>Фрэнч тост с ягодами и мороженым</t>
   </si>
   <si>
@@ -219,21 +189,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>Green salad with mozzarella</t>
-  </si>
-  <si>
-    <t>მწვანე სალათი მოცარელათი</t>
-  </si>
-  <si>
-    <t>Мексиканский с кукурузой</t>
-  </si>
-  <si>
-    <t>Mexican salad with corn</t>
-  </si>
-  <si>
-    <t>მექსიკური სალათი სიმინდით</t>
-  </si>
-  <si>
     <t>Сырники со сметаной и вишней</t>
   </si>
   <si>
@@ -241,15 +196,6 @@
   </si>
   <si>
     <t>სირნიკები არაჟანით და ალუბლით</t>
-  </si>
-  <si>
-    <t>Вафли с  мороженым и ягодами</t>
-  </si>
-  <si>
-    <t>Waffles with ice cream and berries</t>
-  </si>
-  <si>
-    <t>ვაფლები ნაყინით და კენკრით</t>
   </si>
   <si>
     <t>14</t>
@@ -265,9 +211,6 @@
   </si>
   <si>
     <t>Buckwheat risotto with bacon and poached egg</t>
-  </si>
-  <si>
-    <t>Зелёный с моцареллой</t>
   </si>
   <si>
     <t>Трюфельный скрэмбл с лисичками</t>
@@ -418,6 +361,21 @@
   </si>
   <si>
     <t>მიდიები პესტოს სოუსში</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кокосовая рисовая каша </t>
+  </si>
+  <si>
+    <t>შოკოლადის ფონდანტი</t>
+  </si>
+  <si>
+    <t>ალკოჰოლური ნაყინის ნაკრები</t>
+  </si>
+  <si>
+    <t>მწვანე ტოსტი</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -1008,25 +966,25 @@
     </row>
     <row r="2" spans="1:4" ht="19">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1104,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD1010"/>
+  <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1154,7 +1112,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1167,7 +1125,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I24" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I18" si="0">LOWER($B2)</f>
         <v>buckwheat risotto with bacon and poached egg</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -1203,54 +1161,54 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
       <c r="I4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>salted oatmeal porridge with pesto and mozzarella</v>
+        <v>coconut rice porridge with mango</v>
       </c>
       <c r="J4" s="13" t="str">
         <f>LOWER($B4)&amp;"_"&amp;2</f>
-        <v>salted oatmeal porridge with pesto and mozzarella_2</v>
+        <v>coconut rice porridge with mango_2</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>12</v>
-      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coconut rice porridge with mango</v>
+        <v>shakshuka</v>
       </c>
       <c r="J5" s="13" t="str">
-        <f>LOWER($B5)&amp;"_"&amp;2</f>
-        <v>coconut rice porridge with mango_2</v>
+        <f t="shared" ref="J5:J18" si="1">LOWER($B5)&amp;"_"&amp;2</f>
+        <v>shakshuka_2</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1263,129 +1221,149 @@
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
-        <v>28</v>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>18</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="16"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>shakshuka</v>
+        <v>english breakfast</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:J24" si="1">LOWER($B6)&amp;"_"&amp;2</f>
-        <v>shakshuka_2</v>
+        <f t="shared" si="1"/>
+        <v>english breakfast_2</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="16"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>english breakfast</v>
+        <v>eggs benedict on brioche with bacon</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>english breakfast_2</v>
+        <v>eggs benedict on brioche with bacon_2</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13"/>
       <c r="I8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>eggs benedict on brioche with bacon</v>
+        <v>eggs benedict on brioche with salmon</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>eggs benedict on brioche with bacon_2</v>
+        <v>eggs benedict on brioche with salmon_2</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>eggs benedict on brioche with salmon</v>
+        <v>shrimp omelette</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>eggs benedict on brioche with salmon_2</v>
+        <v>shrimp omelette_2</v>
       </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>22</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="17"/>
       <c r="I10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>shrimp omelette</v>
+        <v>truffle scrambled eggs with chanterelles</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>shrimp omelette_2</v>
+        <v>truffle scrambled eggs with chanterelles_2</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
@@ -1402,28 +1380,28 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="17"/>
       <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>truffle scrambled eggs with chanterelles</v>
+        <v>green toast</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>truffle scrambled eggs with chanterelles_2</v>
+        <v>green toast_2</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="13"/>
@@ -1446,36 +1424,38 @@
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" ht="17" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>14</v>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="17"/>
       <c r="I12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>green toast</v>
+        <v>avocado toast</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>green toast_2</v>
+        <v>avocado toast_2</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -1490,7 +1470,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" ht="17" customHeight="1">
+    <row r="13" spans="1:30">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1500,20 +1480,20 @@
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
-        <v>46</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>14</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="17"/>
       <c r="I13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>avocado toast</v>
+        <v>french toast with berries and ice cream</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>avocado toast_2</v>
+        <v>french toast with berries and ice cream_2</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
@@ -1538,30 +1518,30 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="17"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>croque monsieur</v>
+        <v>greek salad</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>croque monsieur_2</v>
+        <v>greek salad_2</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -1592,22 +1572,22 @@
       <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>14</v>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
+        <v>112</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="17"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>caprese pita</v>
+        <v>syrniki with sour cream and cherries</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>caprese pita_2</v>
+        <v>syrniki with sour cream and cherries_2</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -1630,30 +1610,30 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>14</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>french toast with berries and ice cream</v>
+        <v>crêpe suzette</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>french toast with berries and ice cream_2</v>
+        <v>crêpe suzette_2</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -1676,28 +1656,27 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
-        <v>59</v>
+      <c r="E17" s="13">
+        <v>15</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="19"/>
       <c r="I17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>greek salad</v>
+        <v>chocolate fondant</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>greek salad_2</v>
+        <v>chocolate fondant_2</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -1722,28 +1701,27 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="11" t="s">
-        <v>59</v>
+      <c r="E18" s="13">
+        <v>9</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="13" t="str">
+      <c r="I18" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>green salad with mozzarella</v>
+        <v>alco ice-cream set</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>green salad with mozzarella_2</v>
+        <v>alco ice-cream set_2</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -1767,30 +1745,12 @@
       <c r="AD18" s="13"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>mexican salad with corn</v>
-      </c>
-      <c r="J19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>mexican salad with corn_2</v>
-      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -1813,30 +1773,12 @@
       <c r="AD19" s="13"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>syrniki with sour cream and cherries</v>
-      </c>
-      <c r="J20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>syrniki with sour cream and cherries_2</v>
-      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -1859,30 +1801,12 @@
       <c r="AD20" s="13"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>waffles with ice cream and berries</v>
-      </c>
-      <c r="J21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>waffles with ice cream and berries_2</v>
-      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -1905,30 +1829,12 @@
       <c r="AD21" s="13"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>crêpe suzette</v>
-      </c>
-      <c r="J22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>crêpe suzette_2</v>
-      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -1951,26 +1857,12 @@
       <c r="AD22" s="13"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="13">
-        <v>15</v>
-      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>chocolate fondant</v>
-      </c>
-      <c r="J23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>chocolate fondant_2</v>
-      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -1993,26 +1885,12 @@
       <c r="AD23" s="13"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="13">
-        <v>9</v>
-      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>alco ice-cream set</v>
-      </c>
-      <c r="J24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>alco ice-cream set_2</v>
-      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -29474,174 +29352,6 @@
       <c r="AC1004" s="13"/>
       <c r="AD1004" s="13"/>
     </row>
-    <row r="1005" spans="5:30">
-      <c r="E1005" s="13"/>
-      <c r="F1005" s="13"/>
-      <c r="G1005" s="13"/>
-      <c r="H1005" s="19"/>
-      <c r="I1005" s="19"/>
-      <c r="J1005" s="13"/>
-      <c r="K1005" s="13"/>
-      <c r="L1005" s="13"/>
-      <c r="M1005" s="13"/>
-      <c r="N1005" s="13"/>
-      <c r="O1005" s="13"/>
-      <c r="P1005" s="13"/>
-      <c r="Q1005" s="13"/>
-      <c r="R1005" s="13"/>
-      <c r="S1005" s="13"/>
-      <c r="T1005" s="13"/>
-      <c r="U1005" s="13"/>
-      <c r="V1005" s="13"/>
-      <c r="W1005" s="13"/>
-      <c r="X1005" s="13"/>
-      <c r="Y1005" s="13"/>
-      <c r="Z1005" s="13"/>
-      <c r="AA1005" s="13"/>
-      <c r="AB1005" s="13"/>
-      <c r="AC1005" s="13"/>
-      <c r="AD1005" s="13"/>
-    </row>
-    <row r="1006" spans="5:30">
-      <c r="E1006" s="13"/>
-      <c r="F1006" s="13"/>
-      <c r="G1006" s="13"/>
-      <c r="H1006" s="19"/>
-      <c r="I1006" s="19"/>
-      <c r="J1006" s="13"/>
-      <c r="K1006" s="13"/>
-      <c r="L1006" s="13"/>
-      <c r="M1006" s="13"/>
-      <c r="N1006" s="13"/>
-      <c r="O1006" s="13"/>
-      <c r="P1006" s="13"/>
-      <c r="Q1006" s="13"/>
-      <c r="R1006" s="13"/>
-      <c r="S1006" s="13"/>
-      <c r="T1006" s="13"/>
-      <c r="U1006" s="13"/>
-      <c r="V1006" s="13"/>
-      <c r="W1006" s="13"/>
-      <c r="X1006" s="13"/>
-      <c r="Y1006" s="13"/>
-      <c r="Z1006" s="13"/>
-      <c r="AA1006" s="13"/>
-      <c r="AB1006" s="13"/>
-      <c r="AC1006" s="13"/>
-      <c r="AD1006" s="13"/>
-    </row>
-    <row r="1007" spans="5:30">
-      <c r="E1007" s="13"/>
-      <c r="F1007" s="13"/>
-      <c r="G1007" s="13"/>
-      <c r="H1007" s="19"/>
-      <c r="I1007" s="19"/>
-      <c r="J1007" s="13"/>
-      <c r="K1007" s="13"/>
-      <c r="L1007" s="13"/>
-      <c r="M1007" s="13"/>
-      <c r="N1007" s="13"/>
-      <c r="O1007" s="13"/>
-      <c r="P1007" s="13"/>
-      <c r="Q1007" s="13"/>
-      <c r="R1007" s="13"/>
-      <c r="S1007" s="13"/>
-      <c r="T1007" s="13"/>
-      <c r="U1007" s="13"/>
-      <c r="V1007" s="13"/>
-      <c r="W1007" s="13"/>
-      <c r="X1007" s="13"/>
-      <c r="Y1007" s="13"/>
-      <c r="Z1007" s="13"/>
-      <c r="AA1007" s="13"/>
-      <c r="AB1007" s="13"/>
-      <c r="AC1007" s="13"/>
-      <c r="AD1007" s="13"/>
-    </row>
-    <row r="1008" spans="5:30">
-      <c r="E1008" s="13"/>
-      <c r="F1008" s="13"/>
-      <c r="G1008" s="13"/>
-      <c r="H1008" s="19"/>
-      <c r="I1008" s="19"/>
-      <c r="J1008" s="13"/>
-      <c r="K1008" s="13"/>
-      <c r="L1008" s="13"/>
-      <c r="M1008" s="13"/>
-      <c r="N1008" s="13"/>
-      <c r="O1008" s="13"/>
-      <c r="P1008" s="13"/>
-      <c r="Q1008" s="13"/>
-      <c r="R1008" s="13"/>
-      <c r="S1008" s="13"/>
-      <c r="T1008" s="13"/>
-      <c r="U1008" s="13"/>
-      <c r="V1008" s="13"/>
-      <c r="W1008" s="13"/>
-      <c r="X1008" s="13"/>
-      <c r="Y1008" s="13"/>
-      <c r="Z1008" s="13"/>
-      <c r="AA1008" s="13"/>
-      <c r="AB1008" s="13"/>
-      <c r="AC1008" s="13"/>
-      <c r="AD1008" s="13"/>
-    </row>
-    <row r="1009" spans="5:30">
-      <c r="E1009" s="13"/>
-      <c r="F1009" s="13"/>
-      <c r="G1009" s="13"/>
-      <c r="H1009" s="19"/>
-      <c r="I1009" s="19"/>
-      <c r="J1009" s="13"/>
-      <c r="K1009" s="13"/>
-      <c r="L1009" s="13"/>
-      <c r="M1009" s="13"/>
-      <c r="N1009" s="13"/>
-      <c r="O1009" s="13"/>
-      <c r="P1009" s="13"/>
-      <c r="Q1009" s="13"/>
-      <c r="R1009" s="13"/>
-      <c r="S1009" s="13"/>
-      <c r="T1009" s="13"/>
-      <c r="U1009" s="13"/>
-      <c r="V1009" s="13"/>
-      <c r="W1009" s="13"/>
-      <c r="X1009" s="13"/>
-      <c r="Y1009" s="13"/>
-      <c r="Z1009" s="13"/>
-      <c r="AA1009" s="13"/>
-      <c r="AB1009" s="13"/>
-      <c r="AC1009" s="13"/>
-      <c r="AD1009" s="13"/>
-    </row>
-    <row r="1010" spans="5:30">
-      <c r="E1010" s="13"/>
-      <c r="F1010" s="13"/>
-      <c r="G1010" s="13"/>
-      <c r="H1010" s="19"/>
-      <c r="I1010" s="19"/>
-      <c r="J1010" s="13"/>
-      <c r="K1010" s="13"/>
-      <c r="L1010" s="13"/>
-      <c r="M1010" s="13"/>
-      <c r="N1010" s="13"/>
-      <c r="O1010" s="13"/>
-      <c r="P1010" s="13"/>
-      <c r="Q1010" s="13"/>
-      <c r="R1010" s="13"/>
-      <c r="S1010" s="13"/>
-      <c r="T1010" s="13"/>
-      <c r="U1010" s="13"/>
-      <c r="V1010" s="13"/>
-      <c r="W1010" s="13"/>
-      <c r="X1010" s="13"/>
-      <c r="Y1010" s="13"/>
-      <c r="Z1010" s="13"/>
-      <c r="AA1010" s="13"/>
-      <c r="AB1010" s="13"/>
-      <c r="AC1010" s="13"/>
-      <c r="AD1010" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -29652,8 +29362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29697,17 +29407,17 @@
     </row>
     <row r="2" spans="1:30" ht="20.25" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="12"/>
@@ -29723,13 +29433,13 @@
     </row>
     <row r="3" spans="1:30" ht="19">
       <c r="A3" s="20" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20">
@@ -29749,13 +29459,13 @@
     </row>
     <row r="4" spans="1:30" ht="19">
       <c r="A4" s="20" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20">
@@ -29775,13 +29485,13 @@
     </row>
     <row r="5" spans="1:30" ht="19">
       <c r="A5" s="20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20">
@@ -29801,13 +29511,13 @@
     </row>
     <row r="6" spans="1:30" ht="19">
       <c r="A6" s="20" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20">
@@ -29827,13 +29537,13 @@
     </row>
     <row r="7" spans="1:30" ht="19">
       <c r="A7" s="20" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
@@ -29853,13 +29563,13 @@
     </row>
     <row r="8" spans="1:30" ht="19">
       <c r="A8" s="20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20">
@@ -29879,13 +29589,13 @@
     </row>
     <row r="9" spans="1:30" ht="19">
       <c r="A9" s="20" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
@@ -29905,13 +29615,13 @@
     </row>
     <row r="10" spans="1:30" ht="19">
       <c r="A10" s="20" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20">
@@ -29928,13 +29638,13 @@
     </row>
     <row r="11" spans="1:30" ht="19">
       <c r="A11" s="20" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
@@ -29974,13 +29684,13 @@
     </row>
     <row r="12" spans="1:30" ht="19">
       <c r="A12" s="20" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
@@ -30020,13 +29730,13 @@
     </row>
     <row r="13" spans="1:30" ht="19">
       <c r="A13" s="20" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5AEA36-E597-AA45-9112-A6696084A15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E431EB1-39A3-CA4D-82B7-F701A9A80ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>name_ru</t>
   </si>
@@ -166,15 +166,6 @@
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>Фрэнч тост с ягодами и мороженым</t>
-  </si>
-  <si>
-    <t>French toast with berries and ice cream</t>
-  </si>
-  <si>
-    <t>ფრანგული ტოსტი კენკრით და ნაყინით</t>
   </si>
   <si>
     <t>Греческий салат</t>
@@ -966,25 +957,25 @@
     </row>
     <row r="2" spans="1:4" ht="19">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1062,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD1004"/>
+  <dimension ref="A1:AD1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1112,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1125,7 +1116,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I18" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I17" si="0">LOWER($B2)</f>
         <v>buckwheat risotto with bacon and poached egg</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -1161,7 +1152,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1207,7 +1198,7 @@
         <v>shakshuka</v>
       </c>
       <c r="J5" s="13" t="str">
-        <f t="shared" ref="J5:J18" si="1">LOWER($B5)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J5:J17" si="1">LOWER($B5)&amp;"_"&amp;2</f>
         <v>shakshuka_2</v>
       </c>
     </row>
@@ -1334,7 +1325,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>37</v>
@@ -1380,13 +1371,13 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -1480,22 +1471,22 @@
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>14</v>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
+        <v>46</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="17"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>french toast with berries and ice cream</v>
+        <v>greek salad</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>french toast with berries and ice cream_2</v>
+        <v>greek salad_2</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -1518,28 +1509,28 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="19"/>
       <c r="I14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>greek salad</v>
+        <v>syrniki with sour cream and cherries</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>greek salad_2</v>
+        <v>syrniki with sour cream and cherries_2</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1564,28 +1555,28 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="11" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="19"/>
       <c r="I15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>syrniki with sour cream and cherries</v>
+        <v>crêpe suzette</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>syrniki with sour cream and cherries_2</v>
+        <v>crêpe suzette_2</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -1610,28 +1601,27 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="11" t="s">
-        <v>53</v>
+      <c r="E16" s="13">
+        <v>15</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="19"/>
       <c r="I16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>crêpe suzette</v>
+        <v>chocolate fondant</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>crêpe suzette_2</v>
+        <v>chocolate fondant_2</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -1659,24 +1649,24 @@
         <v>103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="13" t="str">
+      <c r="I17" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>chocolate fondant</v>
+        <v>alco ice-cream set</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>chocolate fondant_2</v>
+        <v>alco ice-cream set_2</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -1700,29 +1690,12 @@
       <c r="AD17" s="13"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="13">
-        <v>9</v>
-      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>alco ice-cream set</v>
-      </c>
-      <c r="J18" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>alco ice-cream set_2</v>
-      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -29323,34 +29296,6 @@
       <c r="AB1003" s="13"/>
       <c r="AC1003" s="13"/>
       <c r="AD1003" s="13"/>
-    </row>
-    <row r="1004" spans="5:30">
-      <c r="E1004" s="13"/>
-      <c r="F1004" s="13"/>
-      <c r="G1004" s="13"/>
-      <c r="H1004" s="19"/>
-      <c r="I1004" s="19"/>
-      <c r="J1004" s="13"/>
-      <c r="K1004" s="13"/>
-      <c r="L1004" s="13"/>
-      <c r="M1004" s="13"/>
-      <c r="N1004" s="13"/>
-      <c r="O1004" s="13"/>
-      <c r="P1004" s="13"/>
-      <c r="Q1004" s="13"/>
-      <c r="R1004" s="13"/>
-      <c r="S1004" s="13"/>
-      <c r="T1004" s="13"/>
-      <c r="U1004" s="13"/>
-      <c r="V1004" s="13"/>
-      <c r="W1004" s="13"/>
-      <c r="X1004" s="13"/>
-      <c r="Y1004" s="13"/>
-      <c r="Z1004" s="13"/>
-      <c r="AA1004" s="13"/>
-      <c r="AB1004" s="13"/>
-      <c r="AC1004" s="13"/>
-      <c r="AD1004" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -29407,17 +29352,17 @@
     </row>
     <row r="2" spans="1:30" ht="20.25" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="12"/>
@@ -29433,13 +29378,13 @@
     </row>
     <row r="3" spans="1:30" ht="19">
       <c r="A3" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20">
@@ -29459,13 +29404,13 @@
     </row>
     <row r="4" spans="1:30" ht="19">
       <c r="A4" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20">
@@ -29485,13 +29430,13 @@
     </row>
     <row r="5" spans="1:30" ht="19">
       <c r="A5" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20">
@@ -29511,13 +29456,13 @@
     </row>
     <row r="6" spans="1:30" ht="19">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20">
@@ -29537,13 +29482,13 @@
     </row>
     <row r="7" spans="1:30" ht="19">
       <c r="A7" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
@@ -29563,13 +29508,13 @@
     </row>
     <row r="8" spans="1:30" ht="19">
       <c r="A8" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20">
@@ -29589,13 +29534,13 @@
     </row>
     <row r="9" spans="1:30" ht="19">
       <c r="A9" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
@@ -29615,13 +29560,13 @@
     </row>
     <row r="10" spans="1:30" ht="19">
       <c r="A10" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20">
@@ -29638,13 +29583,13 @@
     </row>
     <row r="11" spans="1:30" ht="19">
       <c r="A11" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
@@ -29684,13 +29629,13 @@
     </row>
     <row r="12" spans="1:30" ht="19">
       <c r="A12" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
@@ -29730,13 +29675,13 @@
     </row>
     <row r="13" spans="1:30" ht="19">
       <c r="A13" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E431EB1-39A3-CA4D-82B7-F701A9A80ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F242AC43-045E-6743-9865-DF50648D616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
     <sheet name="Breakfast 9 AM-5 PM" sheetId="2" r:id="rId2"/>
-    <sheet name="Dinner 3-9 PM" sheetId="7" r:id="rId3"/>
+    <sheet name="Dinner 3 PM-9 PM" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -270,15 +270,6 @@
     <t>Arancini with cheese</t>
   </si>
   <si>
-    <t>Dinner 5-9 PM</t>
-  </si>
-  <si>
-    <t>Ужины 17:00-21:00</t>
-  </si>
-  <si>
-    <t>ვახშამი 5-9 სთ</t>
-  </si>
-  <si>
     <t>Мидии в сливочном соусе</t>
   </si>
   <si>
@@ -367,6 +358,15 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>Ужины 15:00-21:00</t>
+  </si>
+  <si>
+    <t>Dinner 3 PM-9 PM</t>
+  </si>
+  <si>
+    <t>ვახშამი 3-9 სთ</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -957,25 +957,25 @@
     </row>
     <row r="2" spans="1:4" ht="19">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" s="13">
         <v>15</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E17" s="13">
         <v>9</v>
@@ -29307,8 +29307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29358,7 +29358,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23" t="s">
@@ -29378,13 +29378,13 @@
     </row>
     <row r="3" spans="1:30" ht="19">
       <c r="A3" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20">
@@ -29410,7 +29410,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20">
@@ -29436,7 +29436,7 @@
         <v>57</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20">
@@ -29462,7 +29462,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20">
@@ -29482,13 +29482,13 @@
     </row>
     <row r="7" spans="1:30" ht="19">
       <c r="A7" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
@@ -29508,13 +29508,13 @@
     </row>
     <row r="8" spans="1:30" ht="19">
       <c r="A8" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20">
@@ -29540,7 +29540,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
@@ -29566,7 +29566,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20">
@@ -29589,7 +29589,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
@@ -29635,7 +29635,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
@@ -29681,7 +29681,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F242AC43-045E-6743-9865-DF50648D616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC5D6B-2135-5648-9F85-4063DD4D9D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
     <sheet name="Breakfast 9 AM-5 PM" sheetId="2" r:id="rId2"/>
     <sheet name="Dinner 3 PM-9 PM" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>name_ru</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>ვახშამი 3-9 სთ</t>
+  </si>
+  <si>
+    <t>greek salad2</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD1003"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1478,9 +1481,8 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>greek salad</v>
+      <c r="I13" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="1"/>
@@ -29307,7 +29309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC5D6B-2135-5648-9F85-4063DD4D9D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47C2E3-9383-C84A-9816-790F8E44CEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
   <si>
     <t>name_ru</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>greek salad2</t>
+  </si>
+  <si>
+    <t>shakshuka2</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
   <dimension ref="A1:AD1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1196,9 +1199,8 @@
       <c r="F5" s="3"/>
       <c r="G5" s="16"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>shakshuka</v>
+      <c r="I5" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" ref="J5:J17" si="1">LOWER($B5)&amp;"_"&amp;2</f>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47C2E3-9383-C84A-9816-790F8E44CEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C49A169-0B88-924A-8DF4-E785131B992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
     <sheet name="Breakfast 9 AM-5 PM" sheetId="2" r:id="rId2"/>
-    <sheet name="Dinner 3 PM-9 PM" sheetId="7" r:id="rId3"/>
+    <sheet name="Lunch 3 PM-9 PM" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>name_ru</t>
   </si>
@@ -168,18 +168,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>Греческий салат</t>
-  </si>
-  <si>
-    <t>Greek salad</t>
-  </si>
-  <si>
-    <t>ბერძნული სალათი</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Сырники со сметаной и вишней</t>
   </si>
   <si>
@@ -210,64 +198,13 @@
     <t>Eggplants with honey</t>
   </si>
   <si>
-    <t>Croquettes with bacon</t>
-  </si>
-  <si>
-    <t>Mussels with tomato sauce</t>
-  </si>
-  <si>
     <t>Mussels with cream</t>
-  </si>
-  <si>
-    <t>Linguine alla carbonara</t>
-  </si>
-  <si>
-    <t>Fusillini al ragù alla bolognese</t>
-  </si>
-  <si>
-    <t>Capellini ai frutti di mare</t>
-  </si>
-  <si>
-    <t>Fusillini al sugo rosso con stracciatella</t>
-  </si>
-  <si>
-    <t>Gnocchi al pesto di nocciole</t>
   </si>
   <si>
     <t>Баклажаны с медом</t>
   </si>
   <si>
-    <t>Аранчини с сыром</t>
-  </si>
-  <si>
-    <t>Крокеты с беконом</t>
-  </si>
-  <si>
-    <t>Мидии в томатном соусе</t>
-  </si>
-  <si>
-    <t>Лингвини аля карбонара</t>
-  </si>
-  <si>
-    <t>Фузиллини болоньезе</t>
-  </si>
-  <si>
-    <t>Капеллини с морепродуктами</t>
-  </si>
-  <si>
-    <t>Фузиллини в красном соусе со страчиателлой</t>
-  </si>
-  <si>
-    <t>Ньокки с песто из фундука</t>
-  </si>
-  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>Posh Fries</t>
-  </si>
-  <si>
-    <t>Arancini with cheese</t>
   </si>
   <si>
     <t>Мидии в сливочном соусе</t>
@@ -282,52 +219,10 @@
     <t>საუზმე დილის 9 საათიდან საღამოს 5 საათამდე</t>
   </si>
   <si>
-    <t>Картофель фри с трюфельным соусом и пармезаном</t>
-  </si>
-  <si>
     <t>ბადრიჯანი თაფლით</t>
   </si>
   <si>
-    <t>კარტოფილი ფრი პარმეზანით და ტრიუფელის სოუსით</t>
-  </si>
-  <si>
-    <t>არანჩინი ყველით</t>
-  </si>
-  <si>
-    <t>კროკეტები ბეკონით</t>
-  </si>
-  <si>
-    <t>მიდიები ტომატის სოუსით</t>
-  </si>
-  <si>
     <t>მიდიები ნაღებით</t>
-  </si>
-  <si>
-    <t>ლინგუინი ალა კარბონარა</t>
-  </si>
-  <si>
-    <t>ფუცილინი ბოლონეზეს სოუსით</t>
-  </si>
-  <si>
-    <t>კაპელინი ზღვის პროდუქტები</t>
-  </si>
-  <si>
-    <t>ფუსილინი წითელი სოუსით და სტრაჩატელათი</t>
-  </si>
-  <si>
-    <t>ნიოკი თხილის პესტოთი</t>
-  </si>
-  <si>
-    <t>Мидии в песто соусе</t>
-  </si>
-  <si>
-    <t>Mussels in pesto sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Грин тост </t>
-  </si>
-  <si>
-    <t>Green toast</t>
   </si>
   <si>
     <t>Шоколадный фондан</t>
@@ -336,43 +231,109 @@
     <t>Chocolate Fondant</t>
   </si>
   <si>
-    <t>Alco ice-cream set</t>
-  </si>
-  <si>
-    <t>Десерт  18+</t>
-  </si>
-  <si>
-    <t>მიდიები პესტოს სოუსში</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кокосовая рисовая каша </t>
   </si>
   <si>
     <t>შოკოლადის ფონდანტი</t>
   </si>
   <si>
-    <t>ალკოჰოლური ნაყინის ნაკრები</t>
-  </si>
-  <si>
-    <t>მწვანე ტოსტი</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>Ужины 15:00-21:00</t>
+    <t>shakshuka2</t>
   </si>
   <si>
-    <t>Dinner 3 PM-9 PM</t>
+    <t>16</t>
   </si>
   <si>
-    <t>ვახშამი 3-9 სთ</t>
+    <t>25</t>
   </si>
   <si>
-    <t>greek salad2</t>
+    <t>23</t>
   </si>
   <si>
-    <t>shakshuka2</t>
+    <t>Creamy meatball soup</t>
+  </si>
+  <si>
+    <t>Сливочный суп с фрикадельками</t>
+  </si>
+  <si>
+    <t>კრემ სუპი ფრიკადელკებით</t>
+  </si>
+  <si>
+    <t>Tom Yum</t>
+  </si>
+  <si>
+    <t>ტომ იამი</t>
+  </si>
+  <si>
+    <t>Том Ям</t>
+  </si>
+  <si>
+    <t>Potato Draniki with chicken</t>
+  </si>
+  <si>
+    <t>კარტოფილის დრანიკები ქათმით</t>
+  </si>
+  <si>
+    <t>Schnitzel with potatoes</t>
+  </si>
+  <si>
+    <t>შნიცელი კარტოფილთან</t>
+  </si>
+  <si>
+    <t>Udon with Chicken</t>
+  </si>
+  <si>
+    <t>უდონი ქათმით</t>
+  </si>
+  <si>
+    <t>Udon with Vegetables</t>
+  </si>
+  <si>
+    <t>უდონი ბოსტნეულით</t>
+  </si>
+  <si>
+    <t>Udon with Shrimp</t>
+  </si>
+  <si>
+    <t>უდონი კრევეტებით</t>
+  </si>
+  <si>
+    <t>ბოული ორაგულით / კრევეტებით</t>
+  </si>
+  <si>
+    <t>Poke Bowl with shrimp / salmon</t>
+  </si>
+  <si>
+    <t>Драники с курицей в сливочном соусе с грибами</t>
+  </si>
+  <si>
+    <t>Драники с курицей</t>
+  </si>
+  <si>
+    <t>Шницель с картофелем</t>
+  </si>
+  <si>
+    <t>Удон в курицей</t>
+  </si>
+  <si>
+    <t>Удон с овощами</t>
+  </si>
+  <si>
+    <t>Удон с креветками</t>
+  </si>
+  <si>
+    <t>Поке Боул с креветками / лососем</t>
+  </si>
+  <si>
+    <t>Lunch 3 PM-9 PM</t>
+  </si>
+  <si>
+    <t>Обед 15:00-21:00</t>
+  </si>
+  <si>
+    <t>სადილი 3-9 სთ</t>
   </si>
 </sst>
 </file>
@@ -481,17 +442,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -940,7 +901,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -963,25 +924,25 @@
     </row>
     <row r="2" spans="1:4" ht="19">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1059,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD1003"/>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1109,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1122,7 +1083,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I17" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I14" si="0">LOWER($B2)</f>
         <v>buckwheat risotto with bacon and poached egg</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -1158,7 +1119,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1200,10 +1161,10 @@
       <c r="G5" s="16"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="J5" s="13" t="str">
-        <f t="shared" ref="J5:J17" si="1">LOWER($B5)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J5:J14" si="1">LOWER($B5)&amp;"_"&amp;2</f>
         <v>shakshuka_2</v>
       </c>
     </row>
@@ -1330,7 +1291,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>37</v>
@@ -1374,38 +1335,38 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" ht="17" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>14</v>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="17"/>
       <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>green toast</v>
+        <v>avocado toast</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>green toast_2</v>
+        <v>avocado toast_2</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -1420,32 +1381,32 @@
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:30" ht="17" customHeight="1">
+    <row r="12" spans="1:30">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="17"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>avocado toast</v>
+        <v>syrniki with sour cream and cherries</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>avocado toast_2</v>
+        <v>syrniki with sour cream and cherries_2</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -1468,27 +1429,28 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="13" t="s">
-        <v>110</v>
+      <c r="I13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>crêpe suzette</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>greek salad_2</v>
+        <v>crêpe suzette_2</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -1513,28 +1475,27 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
-        <v>106</v>
+      <c r="E14" s="13">
+        <v>15</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="19"/>
       <c r="I14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>syrniki with sour cream and cherries</v>
+        <v>chocolate fondant</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>syrniki with sour cream and cherries_2</v>
+        <v>chocolate fondant_2</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1558,30 +1519,12 @@
       <c r="AD14" s="13"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>crêpe suzette</v>
-      </c>
-      <c r="J15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>crêpe suzette_2</v>
-      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1604,29 +1547,12 @@
       <c r="AD15" s="13"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="13">
-        <v>15</v>
-      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>chocolate fondant</v>
-      </c>
-      <c r="J16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>chocolate fondant_2</v>
-      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1648,30 +1574,13 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="13">
-        <v>9</v>
-      </c>
+    <row r="17" spans="5:30">
+      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>alco ice-cream set</v>
-      </c>
-      <c r="J17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>alco ice-cream set_2</v>
-      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1693,7 +1602,7 @@
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="5:30">
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -1721,7 +1630,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="5:30">
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -1749,7 +1658,7 @@
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="5:30">
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1777,7 +1686,7 @@
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="5:30">
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -1805,7 +1714,7 @@
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="5:30">
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1833,7 +1742,7 @@
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="5:30">
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -1861,7 +1770,7 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="5:30">
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -1889,7 +1798,7 @@
       <c r="AC24" s="13"/>
       <c r="AD24" s="13"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="5:30">
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -1917,7 +1826,7 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="5:30">
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -1945,7 +1854,7 @@
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="5:30">
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -1973,7 +1882,7 @@
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="5:30">
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -2001,7 +1910,7 @@
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="5:30">
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -2029,7 +1938,7 @@
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="5:30">
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -2057,7 +1966,7 @@
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="5:30">
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -2085,7 +1994,7 @@
       <c r="AC31" s="13"/>
       <c r="AD31" s="13"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="5:30">
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -29217,90 +29126,6 @@
       <c r="AC1000" s="13"/>
       <c r="AD1000" s="13"/>
     </row>
-    <row r="1001" spans="5:30">
-      <c r="E1001" s="13"/>
-      <c r="F1001" s="13"/>
-      <c r="G1001" s="13"/>
-      <c r="H1001" s="19"/>
-      <c r="I1001" s="19"/>
-      <c r="J1001" s="13"/>
-      <c r="K1001" s="13"/>
-      <c r="L1001" s="13"/>
-      <c r="M1001" s="13"/>
-      <c r="N1001" s="13"/>
-      <c r="O1001" s="13"/>
-      <c r="P1001" s="13"/>
-      <c r="Q1001" s="13"/>
-      <c r="R1001" s="13"/>
-      <c r="S1001" s="13"/>
-      <c r="T1001" s="13"/>
-      <c r="U1001" s="13"/>
-      <c r="V1001" s="13"/>
-      <c r="W1001" s="13"/>
-      <c r="X1001" s="13"/>
-      <c r="Y1001" s="13"/>
-      <c r="Z1001" s="13"/>
-      <c r="AA1001" s="13"/>
-      <c r="AB1001" s="13"/>
-      <c r="AC1001" s="13"/>
-      <c r="AD1001" s="13"/>
-    </row>
-    <row r="1002" spans="5:30">
-      <c r="E1002" s="13"/>
-      <c r="F1002" s="13"/>
-      <c r="G1002" s="13"/>
-      <c r="H1002" s="19"/>
-      <c r="I1002" s="19"/>
-      <c r="J1002" s="13"/>
-      <c r="K1002" s="13"/>
-      <c r="L1002" s="13"/>
-      <c r="M1002" s="13"/>
-      <c r="N1002" s="13"/>
-      <c r="O1002" s="13"/>
-      <c r="P1002" s="13"/>
-      <c r="Q1002" s="13"/>
-      <c r="R1002" s="13"/>
-      <c r="S1002" s="13"/>
-      <c r="T1002" s="13"/>
-      <c r="U1002" s="13"/>
-      <c r="V1002" s="13"/>
-      <c r="W1002" s="13"/>
-      <c r="X1002" s="13"/>
-      <c r="Y1002" s="13"/>
-      <c r="Z1002" s="13"/>
-      <c r="AA1002" s="13"/>
-      <c r="AB1002" s="13"/>
-      <c r="AC1002" s="13"/>
-      <c r="AD1002" s="13"/>
-    </row>
-    <row r="1003" spans="5:30">
-      <c r="E1003" s="13"/>
-      <c r="F1003" s="13"/>
-      <c r="G1003" s="13"/>
-      <c r="H1003" s="19"/>
-      <c r="I1003" s="19"/>
-      <c r="J1003" s="13"/>
-      <c r="K1003" s="13"/>
-      <c r="L1003" s="13"/>
-      <c r="M1003" s="13"/>
-      <c r="N1003" s="13"/>
-      <c r="O1003" s="13"/>
-      <c r="P1003" s="13"/>
-      <c r="Q1003" s="13"/>
-      <c r="R1003" s="13"/>
-      <c r="S1003" s="13"/>
-      <c r="T1003" s="13"/>
-      <c r="U1003" s="13"/>
-      <c r="V1003" s="13"/>
-      <c r="W1003" s="13"/>
-      <c r="X1003" s="13"/>
-      <c r="Y1003" s="13"/>
-      <c r="Z1003" s="13"/>
-      <c r="AA1003" s="13"/>
-      <c r="AB1003" s="13"/>
-      <c r="AC1003" s="13"/>
-      <c r="AD1003" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -29309,10 +29134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
-  <dimension ref="A1:AD1010"/>
+  <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29356,23 +29181,23 @@
     </row>
     <row r="2" spans="1:30" ht="20.25" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I13" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I11" si="0">LOWER($B2)</f>
         <v>eggplants with honey</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -29380,119 +29205,121 @@
         <v>eggplants with honey_2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="19">
+    <row r="3" spans="1:30" ht="20.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>creamy meatball soup</v>
+      </c>
+      <c r="J3" s="13" t="str">
+        <f t="shared" ref="J3:J11" si="1">LOWER($B3)&amp;"_"&amp;2</f>
+        <v>creamy meatball soup_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>83</v>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
+        <v>69</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20">
-        <v>9</v>
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>tom yum</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>posh fries</v>
+      <c r="J4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>tom yum_2</v>
       </c>
-      <c r="J3" s="13" t="str">
-        <f>LOWER($B3)&amp;"_"&amp;2</f>
-        <v>posh fries_2</v>
+    </row>
+    <row r="5" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="19">
-      <c r="A4" s="20" t="s">
+      <c r="B5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>76</v>
+      <c r="F5" s="3" t="s">
+        <v>89</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="13" t="str">
-        <f>LOWER($B4)</f>
-        <v>arancini with cheese</v>
-      </c>
-      <c r="J4" s="13" t="str">
-        <f>LOWER($B4)&amp;"_"&amp;2</f>
-        <v>arancini with cheese_2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="19">
-      <c r="A5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>croquettes with bacon</v>
+        <v>potato draniki with chicken</v>
       </c>
       <c r="J5" s="13" t="str">
-        <f>LOWER($B5)&amp;"_"&amp;2</f>
-        <v>croquettes with bacon_2</v>
+        <f t="shared" si="1"/>
+        <v>potato draniki with chicken_2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="19">
+    <row r="6" spans="1:30" ht="20.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>58</v>
+      <c r="B6" s="25" t="s">
+        <v>79</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>86</v>
+      <c r="C6" t="s">
+        <v>80</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20">
-        <v>28</v>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>mussels with tomato sauce</v>
+        <v>schnitzel with potatoes</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:J13" si="1">LOWER($B6)&amp;"_"&amp;2</f>
-        <v>mussels with tomato sauce_2</v>
+        <f t="shared" si="1"/>
+        <v>schnitzel with potatoes_2</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="19">
       <c r="A7" s="20" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
@@ -29503,117 +29330,176 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>mussels in pesto sauce</v>
+        <v>mussels with cream</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>mussels in pesto sauce_2</v>
+        <v>mussels with cream_2</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="19">
       <c r="A8" s="20" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>59</v>
+      <c r="B8" s="25" t="s">
+        <v>81</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>87</v>
+      <c r="C8" t="s">
+        <v>82</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20">
-        <v>28</v>
+      <c r="E8" s="13">
+        <v>22</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="13" t="str">
-        <f>LOWER($B8)</f>
-        <v>mussels with cream</v>
+        <f t="shared" si="0"/>
+        <v>udon with chicken</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>mussels with cream_2</v>
+        <v>udon with chicken_2</v>
       </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
     </row>
     <row r="9" spans="1:30" ht="19">
       <c r="A9" s="20" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>60</v>
+      <c r="B9" s="25" t="s">
+        <v>83</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>88</v>
+      <c r="C9" t="s">
+        <v>84</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20">
-        <v>24</v>
+      <c r="E9" s="13">
+        <v>18</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>linguine alla carbonara</v>
+        <v>udon with vegetables</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>linguine alla carbonara_2</v>
+        <v>udon with vegetables_2</v>
       </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
     </row>
     <row r="10" spans="1:30" ht="19">
       <c r="A10" s="20" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>61</v>
+      <c r="B10" s="25" t="s">
+        <v>85</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>89</v>
+      <c r="C10" t="s">
+        <v>86</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20">
-        <v>21</v>
+      <c r="E10" s="13">
+        <v>26</v>
       </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>fusillini al ragù alla bolognese</v>
+        <v>udon with shrimp</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>fusillini al ragù alla bolognese_2</v>
+        <v>udon with shrimp_2</v>
       </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="19">
       <c r="A11" s="20" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>62</v>
+      <c r="B11" s="25" t="s">
+        <v>88</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>90</v>
+      <c r="C11" t="s">
+        <v>87</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
-        <v>29</v>
+      <c r="E11" s="13">
+        <v>21</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="17"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>capellini ai frutti di mare</v>
+        <v>poke bowl with shrimp / salmon</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>capellini ai frutti di mare_2</v>
+        <v>poke bowl with shrimp / salmon_2</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -29631,38 +29517,20 @@
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:30" ht="19">
-      <c r="A12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>fusillini al sugo rosso con stracciatella</v>
-      </c>
-      <c r="J12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>fusillini al sugo rosso con stracciatella_2</v>
-      </c>
-      <c r="K12" s="12"/>
+    <row r="12" spans="1:30">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -29677,32 +29545,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" ht="19">
-      <c r="A13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20">
-        <v>24</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>gnocchi al pesto di nocciole</v>
-      </c>
-      <c r="J13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>gnocchi al pesto di nocciole_2</v>
-      </c>
-      <c r="K13" s="12"/>
+    <row r="13" spans="1:30">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -29724,14 +29574,13 @@
       <c r="AD13" s="13"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="C14" s="3"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -29754,12 +29603,12 @@
     </row>
     <row r="15" spans="1:30">
       <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -29782,12 +29631,12 @@
     </row>
     <row r="16" spans="1:30">
       <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -57472,174 +57321,6 @@
       <c r="AC1004" s="13"/>
       <c r="AD1004" s="13"/>
     </row>
-    <row r="1005" spans="5:30">
-      <c r="E1005" s="13"/>
-      <c r="F1005" s="13"/>
-      <c r="G1005" s="13"/>
-      <c r="H1005" s="19"/>
-      <c r="I1005" s="19"/>
-      <c r="J1005" s="13"/>
-      <c r="K1005" s="13"/>
-      <c r="L1005" s="13"/>
-      <c r="M1005" s="13"/>
-      <c r="N1005" s="13"/>
-      <c r="O1005" s="13"/>
-      <c r="P1005" s="13"/>
-      <c r="Q1005" s="13"/>
-      <c r="R1005" s="13"/>
-      <c r="S1005" s="13"/>
-      <c r="T1005" s="13"/>
-      <c r="U1005" s="13"/>
-      <c r="V1005" s="13"/>
-      <c r="W1005" s="13"/>
-      <c r="X1005" s="13"/>
-      <c r="Y1005" s="13"/>
-      <c r="Z1005" s="13"/>
-      <c r="AA1005" s="13"/>
-      <c r="AB1005" s="13"/>
-      <c r="AC1005" s="13"/>
-      <c r="AD1005" s="13"/>
-    </row>
-    <row r="1006" spans="5:30">
-      <c r="E1006" s="13"/>
-      <c r="F1006" s="13"/>
-      <c r="G1006" s="13"/>
-      <c r="H1006" s="19"/>
-      <c r="I1006" s="19"/>
-      <c r="J1006" s="13"/>
-      <c r="K1006" s="13"/>
-      <c r="L1006" s="13"/>
-      <c r="M1006" s="13"/>
-      <c r="N1006" s="13"/>
-      <c r="O1006" s="13"/>
-      <c r="P1006" s="13"/>
-      <c r="Q1006" s="13"/>
-      <c r="R1006" s="13"/>
-      <c r="S1006" s="13"/>
-      <c r="T1006" s="13"/>
-      <c r="U1006" s="13"/>
-      <c r="V1006" s="13"/>
-      <c r="W1006" s="13"/>
-      <c r="X1006" s="13"/>
-      <c r="Y1006" s="13"/>
-      <c r="Z1006" s="13"/>
-      <c r="AA1006" s="13"/>
-      <c r="AB1006" s="13"/>
-      <c r="AC1006" s="13"/>
-      <c r="AD1006" s="13"/>
-    </row>
-    <row r="1007" spans="5:30">
-      <c r="E1007" s="13"/>
-      <c r="F1007" s="13"/>
-      <c r="G1007" s="13"/>
-      <c r="H1007" s="19"/>
-      <c r="I1007" s="19"/>
-      <c r="J1007" s="13"/>
-      <c r="K1007" s="13"/>
-      <c r="L1007" s="13"/>
-      <c r="M1007" s="13"/>
-      <c r="N1007" s="13"/>
-      <c r="O1007" s="13"/>
-      <c r="P1007" s="13"/>
-      <c r="Q1007" s="13"/>
-      <c r="R1007" s="13"/>
-      <c r="S1007" s="13"/>
-      <c r="T1007" s="13"/>
-      <c r="U1007" s="13"/>
-      <c r="V1007" s="13"/>
-      <c r="W1007" s="13"/>
-      <c r="X1007" s="13"/>
-      <c r="Y1007" s="13"/>
-      <c r="Z1007" s="13"/>
-      <c r="AA1007" s="13"/>
-      <c r="AB1007" s="13"/>
-      <c r="AC1007" s="13"/>
-      <c r="AD1007" s="13"/>
-    </row>
-    <row r="1008" spans="5:30">
-      <c r="E1008" s="13"/>
-      <c r="F1008" s="13"/>
-      <c r="G1008" s="13"/>
-      <c r="H1008" s="19"/>
-      <c r="I1008" s="19"/>
-      <c r="J1008" s="13"/>
-      <c r="K1008" s="13"/>
-      <c r="L1008" s="13"/>
-      <c r="M1008" s="13"/>
-      <c r="N1008" s="13"/>
-      <c r="O1008" s="13"/>
-      <c r="P1008" s="13"/>
-      <c r="Q1008" s="13"/>
-      <c r="R1008" s="13"/>
-      <c r="S1008" s="13"/>
-      <c r="T1008" s="13"/>
-      <c r="U1008" s="13"/>
-      <c r="V1008" s="13"/>
-      <c r="W1008" s="13"/>
-      <c r="X1008" s="13"/>
-      <c r="Y1008" s="13"/>
-      <c r="Z1008" s="13"/>
-      <c r="AA1008" s="13"/>
-      <c r="AB1008" s="13"/>
-      <c r="AC1008" s="13"/>
-      <c r="AD1008" s="13"/>
-    </row>
-    <row r="1009" spans="5:30">
-      <c r="E1009" s="13"/>
-      <c r="F1009" s="13"/>
-      <c r="G1009" s="13"/>
-      <c r="H1009" s="19"/>
-      <c r="I1009" s="19"/>
-      <c r="J1009" s="13"/>
-      <c r="K1009" s="13"/>
-      <c r="L1009" s="13"/>
-      <c r="M1009" s="13"/>
-      <c r="N1009" s="13"/>
-      <c r="O1009" s="13"/>
-      <c r="P1009" s="13"/>
-      <c r="Q1009" s="13"/>
-      <c r="R1009" s="13"/>
-      <c r="S1009" s="13"/>
-      <c r="T1009" s="13"/>
-      <c r="U1009" s="13"/>
-      <c r="V1009" s="13"/>
-      <c r="W1009" s="13"/>
-      <c r="X1009" s="13"/>
-      <c r="Y1009" s="13"/>
-      <c r="Z1009" s="13"/>
-      <c r="AA1009" s="13"/>
-      <c r="AB1009" s="13"/>
-      <c r="AC1009" s="13"/>
-      <c r="AD1009" s="13"/>
-    </row>
-    <row r="1010" spans="5:30">
-      <c r="E1010" s="13"/>
-      <c r="F1010" s="13"/>
-      <c r="G1010" s="13"/>
-      <c r="H1010" s="19"/>
-      <c r="I1010" s="19"/>
-      <c r="J1010" s="13"/>
-      <c r="K1010" s="13"/>
-      <c r="L1010" s="13"/>
-      <c r="M1010" s="13"/>
-      <c r="N1010" s="13"/>
-      <c r="O1010" s="13"/>
-      <c r="P1010" s="13"/>
-      <c r="Q1010" s="13"/>
-      <c r="R1010" s="13"/>
-      <c r="S1010" s="13"/>
-      <c r="T1010" s="13"/>
-      <c r="U1010" s="13"/>
-      <c r="V1010" s="13"/>
-      <c r="W1010" s="13"/>
-      <c r="X1010" s="13"/>
-      <c r="Y1010" s="13"/>
-      <c r="Z1010" s="13"/>
-      <c r="AA1010" s="13"/>
-      <c r="AB1010" s="13"/>
-      <c r="AC1010" s="13"/>
-      <c r="AD1010" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C49A169-0B88-924A-8DF4-E785131B992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58291456-A4FC-6046-944D-41367A4C467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,9 +303,6 @@
     <t>ბოული ორაგულით / კრევეტებით</t>
   </si>
   <si>
-    <t>Poke Bowl with shrimp / salmon</t>
-  </si>
-  <si>
     <t>Драники с курицей в сливочном соусе с грибами</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>სადილი 3-9 სთ</t>
+  </si>
+  <si>
+    <t>Poke Bowl with shrimp/salmon</t>
   </si>
 </sst>
 </file>
@@ -936,13 +936,13 @@
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -29136,8 +29136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29259,7 +29259,7 @@
     </row>
     <row r="5" spans="1:30" ht="20.25" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>77</v>
@@ -29272,7 +29272,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
@@ -29287,7 +29287,7 @@
     </row>
     <row r="6" spans="1:30" ht="20.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>79</v>
@@ -29339,7 +29339,7 @@
     </row>
     <row r="8" spans="1:30" ht="19">
       <c r="A8" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>81</v>
@@ -29384,7 +29384,7 @@
     </row>
     <row r="9" spans="1:30" ht="19">
       <c r="A9" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>83</v>
@@ -29429,7 +29429,7 @@
     </row>
     <row r="10" spans="1:30" ht="19">
       <c r="A10" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>85</v>
@@ -29474,10 +29474,10 @@
     </row>
     <row r="11" spans="1:30" ht="19">
       <c r="A11" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
@@ -29490,11 +29490,11 @@
       <c r="H11" s="19"/>
       <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>poke bowl with shrimp / salmon</v>
+        <v>poke bowl with shrimp/salmon</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>poke bowl with shrimp / salmon_2</v>
+        <v>poke bowl with shrimp/salmon_2</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58291456-A4FC-6046-944D-41367A4C467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74163272-DE71-5546-8854-454F823FECE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>უდონი კრევეტებით</t>
   </si>
   <si>
-    <t>ბოული ორაგულით / კრევეტებით</t>
-  </si>
-  <si>
     <t>Драники с курицей в сливочном соусе с грибами</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>Удон с креветками</t>
   </si>
   <si>
-    <t>Поке Боул с креветками / лососем</t>
-  </si>
-  <si>
     <t>Lunch 3 PM-9 PM</t>
   </si>
   <si>
@@ -334,6 +328,12 @@
   </si>
   <si>
     <t>Poke Bowl with shrimp/salmon</t>
+  </si>
+  <si>
+    <t>Поке Боул с креветками/лососем</t>
+  </si>
+  <si>
+    <t>ბოული ორაგულით/კრევეტებით</t>
   </si>
 </sst>
 </file>
@@ -936,13 +936,13 @@
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -29136,7 +29136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -29259,7 +29259,7 @@
     </row>
     <row r="5" spans="1:30" ht="20.25" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>77</v>
@@ -29272,7 +29272,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
@@ -29287,7 +29287,7 @@
     </row>
     <row r="6" spans="1:30" ht="20.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>79</v>
@@ -29339,7 +29339,7 @@
     </row>
     <row r="8" spans="1:30" ht="19">
       <c r="A8" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>81</v>
@@ -29384,7 +29384,7 @@
     </row>
     <row r="9" spans="1:30" ht="19">
       <c r="A9" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>83</v>
@@ -29429,7 +29429,7 @@
     </row>
     <row r="10" spans="1:30" ht="19">
       <c r="A10" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>85</v>
@@ -29474,13 +29474,13 @@
     </row>
     <row r="11" spans="1:30" ht="19">
       <c r="A11" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E11" s="13">
         <v>21</v>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74163272-DE71-5546-8854-454F823FECE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD555065-C97E-F647-8A9B-276538D7224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,13 +327,13 @@
     <t>სადილი 3-9 სთ</t>
   </si>
   <si>
-    <t>Poke Bowl with shrimp/salmon</t>
-  </si>
-  <si>
     <t>Поке Боул с креветками/лососем</t>
   </si>
   <si>
     <t>ბოული ორაგულით/კრევეტებით</t>
+  </si>
+  <si>
+    <t>poke bowl with shrimp/salmon</t>
   </si>
 </sst>
 </file>
@@ -29136,8 +29136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29474,13 +29474,13 @@
     </row>
     <row r="11" spans="1:30" ht="19">
       <c r="A11" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="13">
         <v>21</v>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD555065-C97E-F647-8A9B-276538D7224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C87525-D9E0-3842-B070-8FBC184944E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>name_ru</t>
   </si>
@@ -327,13 +327,22 @@
     <t>სადილი 3-9 სთ</t>
   </si>
   <si>
-    <t>Поке Боул с креветками/лососем</t>
+    <t>poke bowl with shrimp</t>
   </si>
   <si>
-    <t>ბოული ორაგულით/კრევეტებით</t>
+    <t>poke bowl with salmon</t>
   </si>
   <si>
-    <t>poke bowl with shrimp/salmon</t>
+    <t>ბოული კრევეტებით</t>
+  </si>
+  <si>
+    <t>ბოული ორაგულით</t>
+  </si>
+  <si>
+    <t>Поке Боул с лососем</t>
+  </si>
+  <si>
+    <t>Поке Боул с креветками</t>
   </si>
 </sst>
 </file>
@@ -29136,8 +29145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -29197,7 +29206,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I11" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I12" si="0">LOWER($B2)</f>
         <v>eggplants with honey</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -29227,7 +29236,7 @@
         <v>creamy meatball soup</v>
       </c>
       <c r="J3" s="13" t="str">
-        <f t="shared" ref="J3:J11" si="1">LOWER($B3)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J3:J12" si="1">LOWER($B3)&amp;"_"&amp;2</f>
         <v>creamy meatball soup_2</v>
       </c>
     </row>
@@ -29474,13 +29483,13 @@
     </row>
     <row r="11" spans="1:30" ht="19">
       <c r="A11" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" s="13">
         <v>21</v>
@@ -29490,11 +29499,11 @@
       <c r="H11" s="19"/>
       <c r="I11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>poke bowl with shrimp/salmon</v>
+        <v>poke bowl with salmon</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>poke bowl with shrimp/salmon_2</v>
+        <v>poke bowl with salmon_2</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -29518,12 +29527,29 @@
       <c r="AD11" s="13"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="E12" s="13"/>
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="13">
+        <v>21</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>poke bowl with shrimp</v>
+      </c>
+      <c r="J12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>poke bowl with shrimp_2</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>

--- a/public/magnolia/kitchen.xlsx
+++ b/public/magnolia/kitchen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/magnolia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C87525-D9E0-3842-B070-8FBC184944E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52B4A84-55CE-5247-9FCD-C0567E567EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2320" windowWidth="16380" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>name_ru</t>
   </si>
@@ -175,18 +175,6 @@
   </si>
   <si>
     <t>სირნიკები არაჟანით და ალუბლით</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Креп Сюзет</t>
-  </si>
-  <si>
-    <t>Crêpe Suzette</t>
-  </si>
-  <si>
-    <t>ბლინები სუზეტე</t>
   </si>
   <si>
     <t>Buckwheat risotto with bacon and poached egg</t>
@@ -909,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -933,25 +921,25 @@
     </row>
     <row r="2" spans="1:4" ht="19">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1029,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD1000"/>
+  <dimension ref="A1:AD999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -1079,7 +1067,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1092,7 +1080,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I14" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I13" si="0">LOWER($B2)</f>
         <v>buckwheat risotto with bacon and poached egg</v>
       </c>
       <c r="J2" s="13" t="str">
@@ -1128,7 +1116,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1170,10 +1158,10 @@
       <c r="G5" s="16"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J5" s="13" t="str">
-        <f t="shared" ref="J5:J14" si="1">LOWER($B5)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J5:J13" si="1">LOWER($B5)&amp;"_"&amp;2</f>
         <v>shakshuka_2</v>
       </c>
     </row>
@@ -1300,7 +1288,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>37</v>
@@ -1402,7 +1390,7 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1438,28 +1426,27 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="11" t="s">
-        <v>46</v>
+      <c r="E13" s="13">
+        <v>15</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="19"/>
       <c r="I13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>crêpe suzette</v>
+        <v>chocolate fondant</v>
       </c>
       <c r="J13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>crêpe suzette_2</v>
+        <v>chocolate fondant_2</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -1483,29 +1470,12 @@
       <c r="AD13" s="13"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="13">
-        <v>15</v>
-      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>chocolate fondant</v>
-      </c>
-      <c r="J14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>chocolate fondant_2</v>
-      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -29107,34 +29077,6 @@
       <c r="AC999" s="13"/>
       <c r="AD999" s="13"/>
     </row>
-    <row r="1000" spans="5:30">
-      <c r="E1000" s="13"/>
-      <c r="F1000" s="13"/>
-      <c r="G1000" s="13"/>
-      <c r="H1000" s="19"/>
-      <c r="I1000" s="19"/>
-      <c r="J1000" s="13"/>
-      <c r="K1000" s="13"/>
-      <c r="L1000" s="13"/>
-      <c r="M1000" s="13"/>
-      <c r="N1000" s="13"/>
-      <c r="O1000" s="13"/>
-      <c r="P1000" s="13"/>
-      <c r="Q1000" s="13"/>
-      <c r="R1000" s="13"/>
-      <c r="S1000" s="13"/>
-      <c r="T1000" s="13"/>
-      <c r="U1000" s="13"/>
-      <c r="V1000" s="13"/>
-      <c r="W1000" s="13"/>
-      <c r="X1000" s="13"/>
-      <c r="Y1000" s="13"/>
-      <c r="Z1000" s="13"/>
-      <c r="AA1000" s="13"/>
-      <c r="AB1000" s="13"/>
-      <c r="AC1000" s="13"/>
-      <c r="AD1000" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -29145,7 +29087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C01EC-1FD0-9345-9812-AA59B4F33741}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -29190,17 +29132,17 @@
     </row>
     <row r="2" spans="1:30" ht="20.25" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="12"/>
@@ -29216,17 +29158,17 @@
     </row>
     <row r="3" spans="1:30" ht="20.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="12"/>
@@ -29242,17 +29184,17 @@
     </row>
     <row r="4" spans="1:30" ht="20.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="12"/>
@@ -29268,20 +29210,20 @@
     </row>
     <row r="5" spans="1:30" ht="20.25" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
@@ -29296,17 +29238,17 @@
     </row>
     <row r="6" spans="1:30" ht="20.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="12"/>
@@ -29322,13 +29264,13 @@
     </row>
     <row r="7" spans="1:30" ht="19">
       <c r="A7" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
@@ -29348,13 +29290,13 @@
     </row>
     <row r="8" spans="1:30" ht="19">
       <c r="A8" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" s="13">
         <v>22</v>
@@ -29393,13 +29335,13 @@
     </row>
     <row r="9" spans="1:30" ht="19">
       <c r="A9" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="13">
         <v>18</v>
@@ -29438,13 +29380,13 @@
     </row>
     <row r="10" spans="1:30" ht="19">
       <c r="A10" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" s="13">
         <v>26</v>
@@ -29483,13 +29425,13 @@
     </row>
     <row r="11" spans="1:30" ht="19">
       <c r="A11" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E11" s="13">
         <v>21</v>
@@ -29528,13 +29470,13 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E12" s="13">
         <v>21</v>
